--- a/resultados/resultados_slot04.xlsx
+++ b/resultados/resultados_slot04.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1060008038118777</v>
+        <v>1.261491349765899e+16</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>2.315417289733887</v>
+        <v>0.006764411926269531</v>
       </c>
       <c r="G2" t="n">
-        <v>15439</v>
+        <v>485</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
+          <t>bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1060022565795500</v>
+        <v>1.261527956890907e+16</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>1.568404674530029</v>
+        <v>0.001083612442016602</v>
       </c>
       <c r="G3" t="n">
-        <v>15439</v>
+        <v>485</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42951395539.5179</v>
+        <v>1060008038118777</v>
       </c>
       <c r="E4" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
-        <v>1.814125061035156</v>
+        <v>2.791603803634644</v>
       </c>
       <c r="G4" t="n">
-        <v>11948</v>
+        <v>15439</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
+          <t>bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42952170136.46172</v>
+        <v>1060022565795500</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>1.915487051010132</v>
+        <v>1.924396276473999</v>
       </c>
       <c r="G5" t="n">
-        <v>11948</v>
+        <v>15439</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.257987991320515e+16</v>
+        <v>5849890.36991932</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1169843673706055</v>
+        <v>0.002159357070922852</v>
       </c>
       <c r="G6" t="n">
-        <v>3134</v>
+        <v>138</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
+          <t>bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,16 +675,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.258040926891586e+16</v>
+        <v>5849906.436342365</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0715019702911377</v>
+        <v>0.001317739486694336</v>
       </c>
       <c r="G7" t="n">
-        <v>3134</v>
+        <v>138</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5849890.36991932</v>
+        <v>158268836382.195</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00137639045715332</v>
+        <v>0.08556103706359863</v>
       </c>
       <c r="G8" t="n">
-        <v>138</v>
+        <v>1922</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
+          <t>bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,16 +749,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5849906.436342365</v>
+        <v>158274519528.784</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003683567047119141</v>
+        <v>0.06520462036132812</v>
       </c>
       <c r="G9" t="n">
-        <v>138</v>
+        <v>1922</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,16 +786,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>158268836382.195</v>
+        <v>3464617.500374258</v>
       </c>
       <c r="E10" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05125308036804199</v>
+        <v>0.05857491493225098</v>
       </c>
       <c r="G10" t="n">
-        <v>1922</v>
+        <v>1224</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
+          <t>bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>158274519528.784</v>
+        <v>3464838.462803914</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03121829032897949</v>
+        <v>0.02513456344604492</v>
       </c>
       <c r="G11" t="n">
-        <v>1922</v>
+        <v>1224</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.261491349765899e+16</v>
+        <v>127119840.5799289</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>335</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001111507415771484</v>
+        <v>2.335164546966553</v>
       </c>
       <c r="G12" t="n">
-        <v>485</v>
+        <v>3600</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
+          <t>bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.261527956890907e+16</v>
+        <v>127191447.3212106</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0008611679077148438</v>
+        <v>1.308945417404175</v>
       </c>
       <c r="G13" t="n">
-        <v>485</v>
+        <v>3600</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -934,16 +934,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>127119840.5799289</v>
+        <v>192111739442336.5</v>
       </c>
       <c r="E14" t="n">
-        <v>335</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
-        <v>1.934742212295532</v>
+        <v>0.005386829376220703</v>
       </c>
       <c r="G14" t="n">
-        <v>3600</v>
+        <v>817</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
+          <t>bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -971,16 +971,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>127191447.3212106</v>
+        <v>192109842633671.2</v>
       </c>
       <c r="E15" t="n">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7697076797485352</v>
+        <v>0.003606319427490234</v>
       </c>
       <c r="G15" t="n">
-        <v>3600</v>
+        <v>817</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12960385068.16294</v>
+        <v>2.257987991320515e+16</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F16" t="n">
-        <v>1.235620260238647</v>
+        <v>0.1412050724029541</v>
       </c>
       <c r="G16" t="n">
-        <v>10974</v>
+        <v>3134</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
+          <t>bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1045,16 +1045,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12960480531.96818</v>
+        <v>2.258040926891586e+16</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7504212856292725</v>
+        <v>0.09653830528259277</v>
       </c>
       <c r="G17" t="n">
-        <v>10974</v>
+        <v>3134</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1082,16 +1082,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3464617.500374258</v>
+        <v>12960385068.16294</v>
       </c>
       <c r="E18" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02953696250915527</v>
+        <v>1.335657835006714</v>
       </c>
       <c r="G18" t="n">
-        <v>1224</v>
+        <v>10974</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
+          <t>bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3464838.462803914</v>
+        <v>12960480531.96818</v>
       </c>
       <c r="E19" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01438355445861816</v>
+        <v>1.092768430709839</v>
       </c>
       <c r="G19" t="n">
-        <v>1224</v>
+        <v>10974</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>192111739442336.5</v>
+        <v>42951395539.5179</v>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001952171325683594</v>
+        <v>2.845968008041382</v>
       </c>
       <c r="G20" t="n">
-        <v>817</v>
+        <v>11948</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
+          <t>bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>192109842633671.2</v>
+        <v>42952170136.46172</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001260757446289062</v>
+        <v>2.339402914047241</v>
       </c>
       <c r="G21" t="n">
-        <v>817</v>
+        <v>11948</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
